--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jam2-F11r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jam2-F11r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="H2">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="I2">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="J2">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.628745573652</v>
+        <v>42.0030115</v>
       </c>
       <c r="N2">
-        <v>41.628745573652</v>
+        <v>84.006023</v>
       </c>
       <c r="O2">
-        <v>0.5200772536512716</v>
+        <v>0.5082121969030551</v>
       </c>
       <c r="P2">
-        <v>0.5200772536512716</v>
+        <v>0.4088471200600853</v>
       </c>
       <c r="Q2">
-        <v>3905.31102855384</v>
+        <v>3941.382343236148</v>
       </c>
       <c r="R2">
-        <v>3905.31102855384</v>
+        <v>15765.52937294459</v>
       </c>
       <c r="S2">
-        <v>0.3017063435628706</v>
+        <v>0.2886391524773707</v>
       </c>
       <c r="T2">
-        <v>0.3017063435628706</v>
+        <v>0.1927149433221967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="H3">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="I3">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="J3">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.52114909174973</v>
+        <v>0.08656933333333333</v>
       </c>
       <c r="N3">
-        <v>3.52114909174973</v>
+        <v>0.259708</v>
       </c>
       <c r="O3">
-        <v>0.04399050521697513</v>
+        <v>0.001047438969412139</v>
       </c>
       <c r="P3">
-        <v>0.04399050521697513</v>
+        <v>0.001263967321207012</v>
       </c>
       <c r="Q3">
-        <v>330.3290116408424</v>
+        <v>8.123294727706</v>
       </c>
       <c r="R3">
-        <v>330.3290116408424</v>
+        <v>48.73976836623601</v>
       </c>
       <c r="S3">
-        <v>0.02551969805892798</v>
+        <v>0.0005948930353211538</v>
       </c>
       <c r="T3">
-        <v>0.02551969805892798</v>
+        <v>0.0005957860009671098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="H4">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="I4">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="J4">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.42250159081455</v>
+        <v>5.171693666666667</v>
       </c>
       <c r="N4">
-        <v>8.42250159081455</v>
+        <v>15.515081</v>
       </c>
       <c r="O4">
-        <v>0.1052242011106082</v>
+        <v>0.06257450849795099</v>
       </c>
       <c r="P4">
-        <v>0.1052242011106082</v>
+        <v>0.07551001651808881</v>
       </c>
       <c r="Q4">
-        <v>790.1388306891213</v>
+        <v>485.2895393566296</v>
       </c>
       <c r="R4">
-        <v>790.1388306891213</v>
+        <v>2911.737236139777</v>
       </c>
       <c r="S4">
-        <v>0.06104248695462652</v>
+        <v>0.03553919644117071</v>
       </c>
       <c r="T4">
-        <v>0.06104248695462652</v>
+        <v>0.03559254263892828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="H5">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="I5">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="J5">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0064570913127</v>
+        <v>8.475648666666666</v>
       </c>
       <c r="N5">
-        <v>26.0064570913127</v>
+        <v>25.426946</v>
       </c>
       <c r="O5">
-        <v>0.3249045003606866</v>
+        <v>0.102550457103894</v>
       </c>
       <c r="P5">
-        <v>0.3249045003606866</v>
+        <v>0.1237498606977658</v>
       </c>
       <c r="Q5">
-        <v>2439.739710931813</v>
+        <v>795.318497633747</v>
       </c>
       <c r="R5">
-        <v>2439.739710931813</v>
+        <v>4771.910985802483</v>
       </c>
       <c r="S5">
-        <v>0.1884830534747315</v>
+        <v>0.05824353922438688</v>
       </c>
       <c r="T5">
-        <v>0.1884830534747315</v>
+        <v>0.05833096583142086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>93.8128443396003</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="H6">
-        <v>93.8128443396003</v>
+        <v>187.671417</v>
       </c>
       <c r="I6">
-        <v>0.5801183217391283</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="J6">
-        <v>0.5801183217391283</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.464534978708816</v>
+        <v>26.43944966666666</v>
       </c>
       <c r="N6">
-        <v>0.464534978708816</v>
+        <v>79.318349</v>
       </c>
       <c r="O6">
-        <v>0.005803539660458676</v>
+        <v>0.3199020813068228</v>
       </c>
       <c r="P6">
-        <v>0.005803539660458676</v>
+        <v>0.3860327795373761</v>
       </c>
       <c r="Q6">
-        <v>43.5793476479097</v>
+        <v>2480.964491821755</v>
       </c>
       <c r="R6">
-        <v>43.5793476479097</v>
+        <v>14885.78695093053</v>
       </c>
       <c r="S6">
-        <v>0.003366739687971757</v>
+        <v>0.1816884092645302</v>
       </c>
       <c r="T6">
-        <v>0.003366739687971757</v>
+        <v>0.1819611330957212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.33378248243025</v>
+        <v>93.83570850000001</v>
       </c>
       <c r="H7">
-        <v>3.33378248243025</v>
+        <v>187.671417</v>
       </c>
       <c r="I7">
-        <v>0.02061538920779066</v>
+        <v>0.5679500693534724</v>
       </c>
       <c r="J7">
-        <v>0.02061538920779066</v>
+        <v>0.4713618706519805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.628745573652</v>
+        <v>0.4721975</v>
       </c>
       <c r="N7">
-        <v>41.628745573652</v>
+        <v>0.9443950000000001</v>
       </c>
       <c r="O7">
-        <v>0.5200772536512716</v>
+        <v>0.005713317218864899</v>
       </c>
       <c r="P7">
-        <v>0.5200772536512716</v>
+        <v>0.004596255865476982</v>
       </c>
       <c r="Q7">
-        <v>138.7811827589869</v>
+        <v>44.30898696442876</v>
       </c>
       <c r="R7">
-        <v>138.7811827589869</v>
+        <v>177.235947857715</v>
       </c>
       <c r="S7">
-        <v>0.01072159500213983</v>
+        <v>0.003244878910692708</v>
       </c>
       <c r="T7">
-        <v>0.01072159500213983</v>
+        <v>0.002166499762746368</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.33378248243025</v>
+        <v>3.538394</v>
       </c>
       <c r="H8">
-        <v>3.33378248243025</v>
+        <v>10.615182</v>
       </c>
       <c r="I8">
-        <v>0.02061538920779066</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="J8">
-        <v>0.02061538920779066</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.52114909174973</v>
+        <v>42.0030115</v>
       </c>
       <c r="N8">
-        <v>3.52114909174973</v>
+        <v>84.006023</v>
       </c>
       <c r="O8">
-        <v>0.04399050521697513</v>
+        <v>0.5082121969030551</v>
       </c>
       <c r="P8">
-        <v>0.04399050521697513</v>
+        <v>0.4088471200600853</v>
       </c>
       <c r="Q8">
-        <v>11.73874516010044</v>
+        <v>148.623203873531</v>
       </c>
       <c r="R8">
-        <v>11.73874516010044</v>
+        <v>891.7392232411861</v>
       </c>
       <c r="S8">
-        <v>0.0009068813864952879</v>
+        <v>0.01088411929336062</v>
       </c>
       <c r="T8">
-        <v>0.0009068813864952879</v>
+        <v>0.01090045692725175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.33378248243025</v>
+        <v>3.538394</v>
       </c>
       <c r="H9">
-        <v>3.33378248243025</v>
+        <v>10.615182</v>
       </c>
       <c r="I9">
-        <v>0.02061538920779066</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="J9">
-        <v>0.02061538920779066</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.42250159081455</v>
+        <v>0.08656933333333333</v>
       </c>
       <c r="N9">
-        <v>8.42250159081455</v>
+        <v>0.259708</v>
       </c>
       <c r="O9">
-        <v>0.1052242011106082</v>
+        <v>0.001047438969412139</v>
       </c>
       <c r="P9">
-        <v>0.1052242011106082</v>
+        <v>0.001263967321207012</v>
       </c>
       <c r="Q9">
-        <v>28.07878826169846</v>
+        <v>0.3063164096506667</v>
       </c>
       <c r="R9">
-        <v>28.07878826169846</v>
+        <v>2.756847686856</v>
       </c>
       <c r="S9">
-        <v>0.002169237859974025</v>
+        <v>2.243246180447562E-05</v>
       </c>
       <c r="T9">
-        <v>0.002169237859974025</v>
+        <v>3.369920115921567E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.33378248243025</v>
+        <v>3.538394</v>
       </c>
       <c r="H10">
-        <v>3.33378248243025</v>
+        <v>10.615182</v>
       </c>
       <c r="I10">
-        <v>0.02061538920779066</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="J10">
-        <v>0.02061538920779066</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0064570913127</v>
+        <v>5.171693666666667</v>
       </c>
       <c r="N10">
-        <v>26.0064570913127</v>
+        <v>15.515081</v>
       </c>
       <c r="O10">
-        <v>0.3249045003606866</v>
+        <v>0.06257450849795099</v>
       </c>
       <c r="P10">
-        <v>0.3249045003606866</v>
+        <v>0.07551001651808881</v>
       </c>
       <c r="Q10">
-        <v>86.69987108109224</v>
+        <v>18.29948983997134</v>
       </c>
       <c r="R10">
-        <v>86.69987108109224</v>
+        <v>164.695408559742</v>
       </c>
       <c r="S10">
-        <v>0.006698032730298315</v>
+        <v>0.001340126072072656</v>
       </c>
       <c r="T10">
-        <v>0.006698032730298315</v>
+        <v>0.002013206507387239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.33378248243025</v>
+        <v>3.538394</v>
       </c>
       <c r="H11">
-        <v>3.33378248243025</v>
+        <v>10.615182</v>
       </c>
       <c r="I11">
-        <v>0.02061538920779066</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="J11">
-        <v>0.02061538920779066</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.464534978708816</v>
+        <v>8.475648666666666</v>
       </c>
       <c r="N11">
-        <v>0.464534978708816</v>
+        <v>25.426946</v>
       </c>
       <c r="O11">
-        <v>0.005803539660458676</v>
+        <v>0.102550457103894</v>
       </c>
       <c r="P11">
-        <v>0.005803539660458676</v>
+        <v>0.1237498606977658</v>
       </c>
       <c r="Q11">
-        <v>1.54865857449556</v>
+        <v>29.99018438824134</v>
       </c>
       <c r="R11">
-        <v>1.54865857449556</v>
+        <v>269.9116594941721</v>
       </c>
       <c r="S11">
-        <v>0.0001196422288832049</v>
+        <v>0.002196270407340029</v>
       </c>
       <c r="T11">
-        <v>0.0001196422288832049</v>
+        <v>0.003299350686611557</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.306862161406881</v>
+        <v>3.538394</v>
       </c>
       <c r="H12">
-        <v>0.306862161406881</v>
+        <v>10.615182</v>
       </c>
       <c r="I12">
-        <v>0.001897569179718997</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="J12">
-        <v>0.001897569179718997</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>41.628745573652</v>
+        <v>26.43944966666666</v>
       </c>
       <c r="N12">
-        <v>41.628745573652</v>
+        <v>79.318349</v>
       </c>
       <c r="O12">
-        <v>0.5200772536512716</v>
+        <v>0.3199020813068228</v>
       </c>
       <c r="P12">
-        <v>0.5200772536512716</v>
+        <v>0.3860327795373761</v>
       </c>
       <c r="Q12">
-        <v>12.77428684338798</v>
+        <v>93.55319006383533</v>
       </c>
       <c r="R12">
-        <v>12.77428684338798</v>
+        <v>841.978710574518</v>
       </c>
       <c r="S12">
-        <v>0.000986882567601552</v>
+        <v>0.006851178378550399</v>
       </c>
       <c r="T12">
-        <v>0.000986882567601552</v>
+        <v>0.01029219353492335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.306862161406881</v>
+        <v>3.538394</v>
       </c>
       <c r="H13">
-        <v>0.306862161406881</v>
+        <v>10.615182</v>
       </c>
       <c r="I13">
-        <v>0.001897569179718997</v>
+        <v>0.02141648579016069</v>
       </c>
       <c r="J13">
-        <v>0.001897569179718997</v>
+        <v>0.02666144970190763</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.52114909174973</v>
+        <v>0.4721975</v>
       </c>
       <c r="N13">
-        <v>3.52114909174973</v>
+        <v>0.9443950000000001</v>
       </c>
       <c r="O13">
-        <v>0.04399050521697513</v>
+        <v>0.005713317218864899</v>
       </c>
       <c r="P13">
-        <v>0.04399050521697513</v>
+        <v>0.004596255865476982</v>
       </c>
       <c r="Q13">
-        <v>1.080507420930198</v>
+        <v>1.670820800815</v>
       </c>
       <c r="R13">
-        <v>1.080507420930198</v>
+        <v>10.02492480489</v>
       </c>
       <c r="S13">
-        <v>8.347502689999975E-05</v>
+        <v>0.0001223591770325005</v>
       </c>
       <c r="T13">
-        <v>8.347502689999975E-05</v>
+        <v>0.0001225428445745125</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.306862161406881</v>
+        <v>0.338692</v>
       </c>
       <c r="H14">
-        <v>0.306862161406881</v>
+        <v>1.016076</v>
       </c>
       <c r="I14">
-        <v>0.001897569179718997</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="J14">
-        <v>0.001897569179718997</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.42250159081455</v>
+        <v>42.0030115</v>
       </c>
       <c r="N14">
-        <v>8.42250159081455</v>
+        <v>84.006023</v>
       </c>
       <c r="O14">
-        <v>0.1052242011106082</v>
+        <v>0.5082121969030551</v>
       </c>
       <c r="P14">
-        <v>0.1052242011106082</v>
+        <v>0.4088471200600853</v>
       </c>
       <c r="Q14">
-        <v>2.584547042610246</v>
+        <v>14.226083970958</v>
       </c>
       <c r="R14">
-        <v>2.584547042610246</v>
+        <v>85.35650382574799</v>
       </c>
       <c r="S14">
-        <v>0.0001996702009880435</v>
+        <v>0.001041818444103991</v>
       </c>
       <c r="T14">
-        <v>0.0001996702009880435</v>
+        <v>0.001043382268228114</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.306862161406881</v>
+        <v>0.338692</v>
       </c>
       <c r="H15">
-        <v>0.306862161406881</v>
+        <v>1.016076</v>
       </c>
       <c r="I15">
-        <v>0.001897569179718997</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="J15">
-        <v>0.001897569179718997</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>26.0064570913127</v>
+        <v>0.08656933333333333</v>
       </c>
       <c r="N15">
-        <v>26.0064570913127</v>
+        <v>0.259708</v>
       </c>
       <c r="O15">
-        <v>0.3249045003606866</v>
+        <v>0.001047438969412139</v>
       </c>
       <c r="P15">
-        <v>0.3249045003606866</v>
+        <v>0.001263967321207012</v>
       </c>
       <c r="Q15">
-        <v>7.980397633575523</v>
+        <v>0.02932034064533333</v>
       </c>
       <c r="R15">
-        <v>7.980397633575523</v>
+        <v>0.263883065808</v>
       </c>
       <c r="S15">
-        <v>0.0006165287662364385</v>
+        <v>2.147215757623785E-06</v>
       </c>
       <c r="T15">
-        <v>0.0006165287662364385</v>
+        <v>3.225658261634253E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.306862161406881</v>
+        <v>0.338692</v>
       </c>
       <c r="H16">
-        <v>0.306862161406881</v>
+        <v>1.016076</v>
       </c>
       <c r="I16">
-        <v>0.001897569179718997</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="J16">
-        <v>0.001897569179718997</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.464534978708816</v>
+        <v>5.171693666666667</v>
       </c>
       <c r="N16">
-        <v>0.464534978708816</v>
+        <v>15.515081</v>
       </c>
       <c r="O16">
-        <v>0.005803539660458676</v>
+        <v>0.06257450849795099</v>
       </c>
       <c r="P16">
-        <v>0.005803539660458676</v>
+        <v>0.07551001651808881</v>
       </c>
       <c r="Q16">
-        <v>0.1425482076156867</v>
+        <v>1.751611271350667</v>
       </c>
       <c r="R16">
-        <v>0.1425482076156867</v>
+        <v>15.764501442156</v>
       </c>
       <c r="S16">
-        <v>1.101261799296323E-05</v>
+        <v>0.0001282757034978106</v>
       </c>
       <c r="T16">
-        <v>1.101261799296323E-05</v>
+        <v>0.0001927023780845204</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.162677416618874</v>
+        <v>0.338692</v>
       </c>
       <c r="H17">
-        <v>0.162677416618874</v>
+        <v>1.016076</v>
       </c>
       <c r="I17">
-        <v>0.001005961929607135</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="J17">
-        <v>0.001005961929607135</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.628745573652</v>
+        <v>8.475648666666666</v>
       </c>
       <c r="N17">
-        <v>41.628745573652</v>
+        <v>25.426946</v>
       </c>
       <c r="O17">
-        <v>0.5200772536512716</v>
+        <v>0.102550457103894</v>
       </c>
       <c r="P17">
-        <v>0.5200772536512716</v>
+        <v>0.1237498606977658</v>
       </c>
       <c r="Q17">
-        <v>6.772056787006093</v>
+        <v>2.870634398210667</v>
       </c>
       <c r="R17">
-        <v>6.772056787006093</v>
+        <v>25.835709583896</v>
       </c>
       <c r="S17">
-        <v>0.0005231779176278127</v>
+        <v>0.0002102250955667484</v>
       </c>
       <c r="T17">
-        <v>0.0005231779176278127</v>
+        <v>0.0003158109816910839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.162677416618874</v>
+        <v>0.338692</v>
       </c>
       <c r="H18">
-        <v>0.162677416618874</v>
+        <v>1.016076</v>
       </c>
       <c r="I18">
-        <v>0.001005961929607135</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="J18">
-        <v>0.001005961929607135</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.52114909174973</v>
+        <v>26.43944966666666</v>
       </c>
       <c r="N18">
-        <v>3.52114909174973</v>
+        <v>79.318349</v>
       </c>
       <c r="O18">
-        <v>0.04399050521697513</v>
+        <v>0.3199020813068228</v>
       </c>
       <c r="P18">
-        <v>0.04399050521697513</v>
+        <v>0.3860327795373761</v>
       </c>
       <c r="Q18">
-        <v>0.5728114377757406</v>
+        <v>8.954830086502666</v>
       </c>
       <c r="R18">
-        <v>0.5728114377757406</v>
+        <v>80.59347077852399</v>
       </c>
       <c r="S18">
-        <v>4.425277351246106E-05</v>
+        <v>0.0006557888430140883</v>
       </c>
       <c r="T18">
-        <v>4.425277351246106E-05</v>
+        <v>0.0009851598246917268</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.162677416618874</v>
+        <v>0.338692</v>
       </c>
       <c r="H19">
-        <v>0.162677416618874</v>
+        <v>1.016076</v>
       </c>
       <c r="I19">
-        <v>0.001005961929607135</v>
+        <v>0.002049967416076645</v>
       </c>
       <c r="J19">
-        <v>0.001005961929607135</v>
+        <v>0.002552010805591038</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.42250159081455</v>
+        <v>0.4721975</v>
       </c>
       <c r="N19">
-        <v>8.42250159081455</v>
+        <v>0.9443950000000001</v>
       </c>
       <c r="O19">
-        <v>0.1052242011106082</v>
+        <v>0.005713317218864899</v>
       </c>
       <c r="P19">
-        <v>0.1052242011106082</v>
+        <v>0.004596255865476982</v>
       </c>
       <c r="Q19">
-        <v>1.370150800262067</v>
+        <v>0.15992951567</v>
       </c>
       <c r="R19">
-        <v>1.370150800262067</v>
+        <v>0.9595770940200001</v>
       </c>
       <c r="S19">
-        <v>0.0001058515403905966</v>
+        <v>1.171211413638268E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001058515403905966</v>
+        <v>1.172969463395845E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.162677416618874</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="H20">
-        <v>0.162677416618874</v>
+        <v>0.684877</v>
       </c>
       <c r="I20">
-        <v>0.001005961929607135</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="J20">
-        <v>0.001005961929607135</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0064570913127</v>
+        <v>42.0030115</v>
       </c>
       <c r="N20">
-        <v>26.0064570913127</v>
+        <v>84.006023</v>
       </c>
       <c r="O20">
-        <v>0.3249045003606866</v>
+        <v>0.5082121969030551</v>
       </c>
       <c r="P20">
-        <v>0.3249045003606866</v>
+        <v>0.4088471200600853</v>
       </c>
       <c r="Q20">
-        <v>4.230663255024346</v>
+        <v>9.588965502361832</v>
       </c>
       <c r="R20">
-        <v>4.230663255024346</v>
+        <v>57.533793014171</v>
       </c>
       <c r="S20">
-        <v>0.0003268415581208785</v>
+        <v>0.0007022284657275723</v>
       </c>
       <c r="T20">
-        <v>0.0003268415581208785</v>
+        <v>0.0007032825474839147</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.162677416618874</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="H21">
-        <v>0.162677416618874</v>
+        <v>0.684877</v>
       </c>
       <c r="I21">
-        <v>0.001005961929607135</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="J21">
-        <v>0.001005961929607135</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.464534978708816</v>
+        <v>0.08656933333333333</v>
       </c>
       <c r="N21">
-        <v>0.464534978708816</v>
+        <v>0.259708</v>
       </c>
       <c r="O21">
-        <v>0.005803539660458676</v>
+        <v>0.001047438969412139</v>
       </c>
       <c r="P21">
-        <v>0.005803539660458676</v>
+        <v>0.001263967321207012</v>
       </c>
       <c r="Q21">
-        <v>0.07556935026545382</v>
+        <v>0.01976311510177777</v>
       </c>
       <c r="R21">
-        <v>0.07556935026545382</v>
+        <v>0.177868035916</v>
       </c>
       <c r="S21">
-        <v>5.838139955386548E-06</v>
+        <v>1.447311703488819E-06</v>
       </c>
       <c r="T21">
-        <v>5.838139955386548E-06</v>
+        <v>2.174226291392851E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>61.3538582707218</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="H22">
-        <v>61.3538582707218</v>
+        <v>0.684877</v>
       </c>
       <c r="I22">
-        <v>0.3793989782826268</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="J22">
-        <v>0.3793989782826268</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>41.628745573652</v>
+        <v>5.171693666666667</v>
       </c>
       <c r="N22">
-        <v>41.628745573652</v>
+        <v>15.515081</v>
       </c>
       <c r="O22">
-        <v>0.5200772536512716</v>
+        <v>0.06257450849795099</v>
       </c>
       <c r="P22">
-        <v>0.5200772536512716</v>
+        <v>0.07551001651808881</v>
       </c>
       <c r="Q22">
-        <v>2554.084155913782</v>
+        <v>1.180658014448556</v>
       </c>
       <c r="R22">
-        <v>2554.084155913782</v>
+        <v>10.625922130037</v>
       </c>
       <c r="S22">
-        <v>0.1973167786633269</v>
+        <v>8.646309821752511E-05</v>
       </c>
       <c r="T22">
-        <v>0.1973167786633269</v>
+        <v>0.0001298893257939289</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>61.3538582707218</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="H23">
-        <v>61.3538582707218</v>
+        <v>0.684877</v>
       </c>
       <c r="I23">
-        <v>0.3793989782826268</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="J23">
-        <v>0.3793989782826268</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.52114909174973</v>
+        <v>8.475648666666666</v>
       </c>
       <c r="N23">
-        <v>3.52114909174973</v>
+        <v>25.426946</v>
       </c>
       <c r="O23">
-        <v>0.04399050521697513</v>
+        <v>0.102550457103894</v>
       </c>
       <c r="P23">
-        <v>0.04399050521697513</v>
+        <v>0.1237498606977658</v>
       </c>
       <c r="Q23">
-        <v>216.0360823252937</v>
+        <v>1.934925610626889</v>
       </c>
       <c r="R23">
-        <v>216.0360823252937</v>
+        <v>17.414330495642</v>
       </c>
       <c r="S23">
-        <v>0.01668995273345693</v>
+        <v>0.0001417003578240879</v>
       </c>
       <c r="T23">
-        <v>0.01668995273345693</v>
+        <v>0.0002128695862392621</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>61.3538582707218</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="H24">
-        <v>61.3538582707218</v>
+        <v>0.684877</v>
       </c>
       <c r="I24">
-        <v>0.3793989782826268</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="J24">
-        <v>0.3793989782826268</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.42250159081455</v>
+        <v>26.43944966666666</v>
       </c>
       <c r="N24">
-        <v>8.42250159081455</v>
+        <v>79.318349</v>
       </c>
       <c r="O24">
-        <v>0.1052242011106082</v>
+        <v>0.3199020813068228</v>
       </c>
       <c r="P24">
-        <v>0.1052242011106082</v>
+        <v>0.3860327795373761</v>
       </c>
       <c r="Q24">
-        <v>516.7529688877648</v>
+        <v>6.035923656452555</v>
       </c>
       <c r="R24">
-        <v>516.7529688877648</v>
+        <v>54.32331290807299</v>
       </c>
       <c r="S24">
-        <v>0.03992195439197037</v>
+        <v>0.0004420286429725332</v>
       </c>
       <c r="T24">
-        <v>0.03992195439197037</v>
+        <v>0.0006640382267226032</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>61.3538582707218</v>
+        <v>0.2282923333333333</v>
       </c>
       <c r="H25">
-        <v>61.3538582707218</v>
+        <v>0.684877</v>
       </c>
       <c r="I25">
-        <v>0.3793989782826268</v>
+        <v>0.001381762322917109</v>
       </c>
       <c r="J25">
-        <v>0.3793989782826268</v>
+        <v>0.001720160208981192</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0064570913127</v>
+        <v>0.4721975</v>
       </c>
       <c r="N25">
-        <v>26.0064570913127</v>
+        <v>0.9443950000000001</v>
       </c>
       <c r="O25">
-        <v>0.3249045003606866</v>
+        <v>0.005713317218864899</v>
       </c>
       <c r="P25">
-        <v>0.3249045003606866</v>
+        <v>0.004596255865476982</v>
       </c>
       <c r="Q25">
-        <v>1595.596482504007</v>
+        <v>0.1077990690691667</v>
       </c>
       <c r="R25">
-        <v>1595.596482504007</v>
+        <v>0.6467944144150001</v>
       </c>
       <c r="S25">
-        <v>0.1232684354762718</v>
+        <v>7.894446471901077E-06</v>
       </c>
       <c r="T25">
-        <v>0.1232684354762718</v>
+        <v>7.906296450089915E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>61.3538582707218</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="H26">
-        <v>61.3538582707218</v>
+        <v>190.816101</v>
       </c>
       <c r="I26">
-        <v>0.3793989782826268</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="J26">
-        <v>0.3793989782826268</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.464534978708816</v>
+        <v>42.0030115</v>
       </c>
       <c r="N26">
-        <v>0.464534978708816</v>
+        <v>84.006023</v>
       </c>
       <c r="O26">
-        <v>0.005803539660458676</v>
+        <v>0.5082121969030551</v>
       </c>
       <c r="P26">
-        <v>0.005803539660458676</v>
+        <v>0.4088471200600853</v>
       </c>
       <c r="Q26">
-        <v>28.50101324549347</v>
+        <v>2671.61696156272</v>
       </c>
       <c r="R26">
-        <v>28.50101324549347</v>
+        <v>16029.70176937632</v>
       </c>
       <c r="S26">
-        <v>0.002201857017600724</v>
+        <v>0.1956504567117124</v>
       </c>
       <c r="T26">
-        <v>0.002201857017600724</v>
+        <v>0.1959441383083794</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.74326867662065</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="H27">
-        <v>2.74326867662065</v>
+        <v>190.816101</v>
       </c>
       <c r="I27">
-        <v>0.01696377966112813</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="J27">
-        <v>0.01696377966112813</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>41.628745573652</v>
+        <v>0.08656933333333333</v>
       </c>
       <c r="N27">
-        <v>41.628745573652</v>
+        <v>0.259708</v>
       </c>
       <c r="O27">
-        <v>0.5200772536512716</v>
+        <v>0.001047438969412139</v>
       </c>
       <c r="P27">
-        <v>0.5200772536512716</v>
+        <v>0.001263967321207012</v>
       </c>
       <c r="Q27">
-        <v>114.1988337792101</v>
+        <v>5.506274217611999</v>
       </c>
       <c r="R27">
-        <v>114.1988337792101</v>
+        <v>49.55646795850799</v>
       </c>
       <c r="S27">
-        <v>0.008822475937704816</v>
+        <v>0.0004032408391454298</v>
       </c>
       <c r="T27">
-        <v>0.008822475937704816</v>
+        <v>0.0006057691871902161</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.74326867662065</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="H28">
-        <v>2.74326867662065</v>
+        <v>190.816101</v>
       </c>
       <c r="I28">
-        <v>0.01696377966112813</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="J28">
-        <v>0.01696377966112813</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.52114909174973</v>
+        <v>5.171693666666667</v>
       </c>
       <c r="N28">
-        <v>3.52114909174973</v>
+        <v>15.515081</v>
       </c>
       <c r="O28">
-        <v>0.04399050521697513</v>
+        <v>0.06257450849795099</v>
       </c>
       <c r="P28">
-        <v>0.04399050521697513</v>
+        <v>0.07551001651808881</v>
       </c>
       <c r="Q28">
-        <v>9.659458009108286</v>
+        <v>328.947473679909</v>
       </c>
       <c r="R28">
-        <v>9.659458009108286</v>
+        <v>2960.527263119181</v>
       </c>
       <c r="S28">
-        <v>0.0007462452376824736</v>
+        <v>0.02408980193852063</v>
       </c>
       <c r="T28">
-        <v>0.0007462452376824736</v>
+        <v>0.03618894299197701</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.74326867662065</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="H29">
-        <v>2.74326867662065</v>
+        <v>190.816101</v>
       </c>
       <c r="I29">
-        <v>0.01696377966112813</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="J29">
-        <v>0.01696377966112813</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.42250159081455</v>
+        <v>8.475648666666666</v>
       </c>
       <c r="N29">
-        <v>8.42250159081455</v>
+        <v>25.426946</v>
       </c>
       <c r="O29">
-        <v>0.1052242011106082</v>
+        <v>0.102550457103894</v>
       </c>
       <c r="P29">
-        <v>0.1052242011106082</v>
+        <v>0.1237498606977658</v>
       </c>
       <c r="Q29">
-        <v>23.10518479286915</v>
+        <v>539.0967440063939</v>
       </c>
       <c r="R29">
-        <v>23.10518479286915</v>
+        <v>4851.870696057546</v>
       </c>
       <c r="S29">
-        <v>0.001785000162658591</v>
+        <v>0.03947965808502445</v>
       </c>
       <c r="T29">
-        <v>0.001785000162658591</v>
+        <v>0.05930837868355814</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.74326867662065</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="H30">
-        <v>2.74326867662065</v>
+        <v>190.816101</v>
       </c>
       <c r="I30">
-        <v>0.01696377966112813</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="J30">
-        <v>0.01696377966112813</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.0064570913127</v>
+        <v>26.43944966666666</v>
       </c>
       <c r="N30">
-        <v>26.0064570913127</v>
+        <v>79.318349</v>
       </c>
       <c r="O30">
-        <v>0.3249045003606866</v>
+        <v>0.3199020813068228</v>
       </c>
       <c r="P30">
-        <v>0.3249045003606866</v>
+        <v>0.3860327795373761</v>
       </c>
       <c r="Q30">
-        <v>71.34269912847712</v>
+        <v>1681.690899326361</v>
       </c>
       <c r="R30">
-        <v>71.34269912847712</v>
+        <v>15135.21809393725</v>
       </c>
       <c r="S30">
-        <v>0.005511608355027612</v>
+        <v>0.1231552266791553</v>
       </c>
       <c r="T30">
-        <v>0.005511608355027612</v>
+        <v>0.1850101337001551</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.74326867662065</v>
+        <v>63.60536699999999</v>
       </c>
       <c r="H31">
-        <v>2.74326867662065</v>
+        <v>190.816101</v>
       </c>
       <c r="I31">
-        <v>0.01696377966112813</v>
+        <v>0.3849778850329995</v>
       </c>
       <c r="J31">
-        <v>0.01696377966112813</v>
+        <v>0.4792601652167268</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.464534978708816</v>
+        <v>0.4721975</v>
       </c>
       <c r="N31">
-        <v>0.464534978708816</v>
+        <v>0.9443950000000001</v>
       </c>
       <c r="O31">
-        <v>0.005803539660458676</v>
+        <v>0.005713317218864899</v>
       </c>
       <c r="P31">
-        <v>0.005803539660458676</v>
+        <v>0.004596255865476982</v>
       </c>
       <c r="Q31">
-        <v>1.274344256286535</v>
+        <v>30.0342952839825</v>
       </c>
       <c r="R31">
-        <v>1.274344256286535</v>
+        <v>180.205771703895</v>
       </c>
       <c r="S31">
-        <v>9.844996805463933E-05</v>
+        <v>0.002199500779441228</v>
       </c>
       <c r="T31">
-        <v>9.844996805463933E-05</v>
+        <v>0.002202802345466848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.671782</v>
+      </c>
+      <c r="H32">
+        <v>7.343564</v>
+      </c>
+      <c r="I32">
+        <v>0.02222383008437381</v>
+      </c>
+      <c r="J32">
+        <v>0.01844434341481282</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>42.0030115</v>
+      </c>
+      <c r="N32">
+        <v>84.006023</v>
+      </c>
+      <c r="O32">
+        <v>0.5082121969030551</v>
+      </c>
+      <c r="P32">
+        <v>0.4088471200600853</v>
+      </c>
+      <c r="Q32">
+        <v>154.225901571493</v>
+      </c>
+      <c r="R32">
+        <v>616.9036062859719</v>
+      </c>
+      <c r="S32">
+        <v>0.01129442151077982</v>
+      </c>
+      <c r="T32">
+        <v>0.007540916686545419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.671782</v>
+      </c>
+      <c r="H33">
+        <v>7.343564</v>
+      </c>
+      <c r="I33">
+        <v>0.02222383008437381</v>
+      </c>
+      <c r="J33">
+        <v>0.01844434341481282</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.08656933333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.259708</v>
+      </c>
+      <c r="O33">
+        <v>0.001047438969412139</v>
+      </c>
+      <c r="P33">
+        <v>0.001263967321207012</v>
+      </c>
+      <c r="Q33">
+        <v>0.3178637198853333</v>
+      </c>
+      <c r="R33">
+        <v>1.907182319312</v>
+      </c>
+      <c r="S33">
+        <v>2.327810567996698E-05</v>
+      </c>
+      <c r="T33">
+        <v>2.331304733744315E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.671782</v>
+      </c>
+      <c r="H34">
+        <v>7.343564</v>
+      </c>
+      <c r="I34">
+        <v>0.02222383008437381</v>
+      </c>
+      <c r="J34">
+        <v>0.01844434341481282</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.171693666666667</v>
+      </c>
+      <c r="N34">
+        <v>15.515081</v>
+      </c>
+      <c r="O34">
+        <v>0.06257450849795099</v>
+      </c>
+      <c r="P34">
+        <v>0.07551001651808881</v>
+      </c>
+      <c r="Q34">
+        <v>18.98933171478067</v>
+      </c>
+      <c r="R34">
+        <v>113.935990288684</v>
+      </c>
+      <c r="S34">
+        <v>0.001390645244471668</v>
+      </c>
+      <c r="T34">
+        <v>0.001392732675917819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.671782</v>
+      </c>
+      <c r="H35">
+        <v>7.343564</v>
+      </c>
+      <c r="I35">
+        <v>0.02222383008437381</v>
+      </c>
+      <c r="J35">
+        <v>0.01844434341481282</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.475648666666666</v>
+      </c>
+      <c r="N35">
+        <v>25.426946</v>
+      </c>
+      <c r="O35">
+        <v>0.102550457103894</v>
+      </c>
+      <c r="P35">
+        <v>0.1237498606977658</v>
+      </c>
+      <c r="Q35">
+        <v>31.12073421259067</v>
+      </c>
+      <c r="R35">
+        <v>186.724405275544</v>
+      </c>
+      <c r="S35">
+        <v>0.002279063933751805</v>
+      </c>
+      <c r="T35">
+        <v>0.002282484928244839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.671782</v>
+      </c>
+      <c r="H36">
+        <v>7.343564</v>
+      </c>
+      <c r="I36">
+        <v>0.02222383008437381</v>
+      </c>
+      <c r="J36">
+        <v>0.01844434341481282</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>26.43944966666666</v>
+      </c>
+      <c r="N36">
+        <v>79.318349</v>
+      </c>
+      <c r="O36">
+        <v>0.3199020813068228</v>
+      </c>
+      <c r="P36">
+        <v>0.3860327795373761</v>
+      </c>
+      <c r="Q36">
+        <v>97.07989537597265</v>
+      </c>
+      <c r="R36">
+        <v>582.479372255836</v>
+      </c>
+      <c r="S36">
+        <v>0.007109449498600365</v>
+      </c>
+      <c r="T36">
+        <v>0.007120121155162091</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.671782</v>
+      </c>
+      <c r="H37">
+        <v>7.343564</v>
+      </c>
+      <c r="I37">
+        <v>0.02222383008437381</v>
+      </c>
+      <c r="J37">
+        <v>0.01844434341481282</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.4721975</v>
+      </c>
+      <c r="N37">
+        <v>0.9443950000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.005713317218864899</v>
+      </c>
+      <c r="P37">
+        <v>0.004596255865476982</v>
+      </c>
+      <c r="Q37">
+        <v>1.733806280945</v>
+      </c>
+      <c r="R37">
+        <v>6.93522512378</v>
+      </c>
+      <c r="S37">
+        <v>0.0001269717910901806</v>
+      </c>
+      <c r="T37">
+        <v>8.477492160520517E-05</v>
       </c>
     </row>
   </sheetData>
